--- a/bitbloq/_toolbox/RubricaEvaluación copy.xlsx
+++ b/bitbloq/_toolbox/RubricaEvaluación copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Deficiente de análisis de necesidades, no se entiende.
-Diseño de algoritmo, no se entiende.
-El prototipo no llega a funcionar.</t>
-  </si>
-  <si>
     <t>Análisis y diseño correctos, prototipo entrega la funcionalidad y el montaje se ha hecho con calidad y atención al detalle.</t>
   </si>
   <si>
@@ -35,39 +30,16 @@
     <t xml:space="preserve">Motivación al logro adecuada, pero escasa autonomía al proponer soluciones. </t>
   </si>
   <si>
-    <t>No documenta los trabajos, no los sube a la nube, no comparte conocimiento, le cuesta colaborar con su par.</t>
-  </si>
-  <si>
-    <t>Documenta los trabajos y se entiende pero le falta estructura para mejorar la compresión por otro. Colabora con su par,  pero le cuesta aportar en los espacios comunes con el resto del aula.</t>
-  </si>
-  <si>
-    <t>Documentación de trabajos bien estructurada y entendible. Buena colaboración con su par. Hace aportaciones  con el resto del aula, pero debe mejora la ayuda a otros equipos.</t>
-  </si>
-  <si>
-    <t>Documentación de trabajos bien estructurada y entendible. Excelente colaboración con su par. Hace aportaciones  con el resto del aula, busca activamente ayudar a otros equipos.</t>
-  </si>
-  <si>
-    <t>Análisis de necesidades correcto.
-Diseño de algoritmo no se entiende.
-Prototipo no llega funcionar</t>
-  </si>
-  <si>
     <t>Análisis y Diseño correctos, pero prototipo no llega a funcionar.</t>
   </si>
   <si>
     <t>Análisis y Diseño correctos, el prototipo llega a funcionar, pero funcionalidad no es correcta, faltan pruebas.</t>
   </si>
   <si>
-    <t>Análisis y Diseño correctos, el prototipo entrega la  funcionalidad pero el montaje puede producir errores.</t>
-  </si>
-  <si>
     <t>Buena motivación al logro, y autonomía al plantear soluciones, pero espíritu crítico debe mejorar, la soluciones deben ser prácticas.</t>
   </si>
   <si>
     <t>Buena motivación al logro, autonomía al plantear soluciones y espíritu crítico práctico, pero tiene que ampliar la creatividad de la soluciones.</t>
-  </si>
-  <si>
-    <t>Motivación, Autonomía, Espíritu Crítico y Creatividad correctas pero están dentro de las presentadas por del resto de la clase.</t>
   </si>
   <si>
     <t>Motivación, Autonomía, espíritu Crítico y Creatividad correctas, además son diferentes a las presentadas por el resto de la clase, mucha originalidad.</t>
@@ -129,6 +101,37 @@
     </r>
   </si>
   <si>
+    <t>Puntos</t>
+  </si>
+  <si>
+    <t>Deficiente análisis de necesidades, no se entiende.
+Diseño de algoritmo, no se entiende.
+El prototipo no funciona.</t>
+  </si>
+  <si>
+    <t>Análisis de necesidades correcto.
+Diseño de algoritmo no se entiende.
+Prototipo no funciona.</t>
+  </si>
+  <si>
+    <t>Análisis y Diseño correctos, el prototipo entrega la  funcionalidad pero el montaje físico puede producir errores.</t>
+  </si>
+  <si>
+    <t>Motivación, Autonomía, Espíritu Crítico y Creatividad correctas pero, dentro de lo común presentado por del resto del aula.</t>
+  </si>
+  <si>
+    <t>No documenta los trabajos, no los sube a la nube, no comparte conocimiento, le cuesta colaborar con su par y en el aula.</t>
+  </si>
+  <si>
+    <t>Documenta los trabajos y se entienden, pero le falta estructura para mejorar la compresión por otro. Colabora con su par,  pero le cuesta aportar en los espacios comunes con el resto del aula.</t>
+  </si>
+  <si>
+    <t>Documentación de trabajos bien estructurada y entendible. Buena colaboración con su par. Hace aportaciones  con el resto del aula, pero debe mejora la ayuda a otros equipos cuando puede.</t>
+  </si>
+  <si>
+    <t>Documentación de trabajos bien estructurada y entendible. Excelente colaboración con su par. Hace aportaciones  con el resto del aula, cuando puede busca activamente ayudar a otros equipos.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -148,11 +151,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- Trabajo en equipo</t>
+ Trabajo en equipo
+Conocimento Colaborativo
+Enprendimiento</t>
     </r>
-  </si>
-  <si>
-    <t>Puntos</t>
   </si>
 </sst>
 </file>
@@ -330,8 +332,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -367,11 +373,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -718,16 +728,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="82" customHeight="1" thickTop="1">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="116" customHeight="1">
@@ -735,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="116" customHeight="1">
@@ -749,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="116" customHeight="1">
@@ -763,13 +773,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="116" customHeight="1">
@@ -777,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="116" customHeight="1">
@@ -791,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="116" customHeight="1">
@@ -805,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" customHeight="1"/>
